--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Fomesafen/Fomesafen_Absolute ED/Data Sheet_Fomesafen_GH.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Fomesafen/Fomesafen_Absolute ED/Data Sheet_Fomesafen_GH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Fomesafen/Fomesafen_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1018" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D241EB02-73DB-42B0-8694-DCB6E01C5A06}"/>
+  <xr:revisionPtr revIDLastSave="1021" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA2ED34A-0408-47FA-A0D8-36265ABADE98}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -218,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +524,7 @@
   <dimension ref="A1:K1153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,9 +605,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4">
-        <v>100</v>
-      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
